--- a/data/config/level.xlsx
+++ b/data/config/level.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="1785" windowWidth="13365" windowHeight="4395"/>
+    <workbookView xWindow="6528" yWindow="1788" windowWidth="13368" windowHeight="4392"/>
   </bookViews>
   <sheets>
     <sheet name="level" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -75,8 +75,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,7 +778,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -852,7 +852,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -887,7 +886,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1063,25 +1061,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E22"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="8.25" customWidth="1"/>
-    <col min="7" max="7" width="8.75" customWidth="1"/>
-    <col min="8" max="8" width="6.375" customWidth="1"/>
-    <col min="9" max="9" width="7.25" customWidth="1"/>
-    <col min="10" max="10" width="6.75" customWidth="1"/>
-    <col min="11" max="11" width="14.625" customWidth="1"/>
-    <col min="12" max="12" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1157,7 +1155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1165,13 +1163,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="D3" s="1">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1">
         <v>20</v>
@@ -1195,33 +1193,33 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
       <c r="C4" s="1">
-        <v>8800</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1">
         <v>20</v>
       </c>
       <c r="G4" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I4" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J4" s="1">
         <v>200</v>
@@ -1233,33 +1231,33 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
       <c r="C5" s="1">
-        <v>9600</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1">
         <v>20</v>
       </c>
       <c r="G5" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1">
         <v>55</v>
-      </c>
-      <c r="I5" s="1">
-        <v>30</v>
       </c>
       <c r="J5" s="1">
         <v>200</v>
@@ -1271,33 +1269,33 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
       <c r="C6" s="1">
-        <v>10400</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1">
         <v>20</v>
       </c>
       <c r="H6" s="1">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I6" s="1">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1">
         <v>200</v>
@@ -1309,618 +1307,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>11200</v>
-      </c>
-      <c r="D7" s="1">
-        <v>208</v>
-      </c>
-      <c r="E7" s="1">
-        <v>208</v>
-      </c>
-      <c r="F7" s="1">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1">
-        <v>20</v>
-      </c>
-      <c r="H7" s="1">
-        <v>55</v>
-      </c>
-      <c r="I7" s="1">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1">
-        <v>200</v>
-      </c>
-      <c r="K7" s="1">
-        <v>100</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4600</v>
-      </c>
-      <c r="D8" s="1">
-        <v>75</v>
-      </c>
-      <c r="E8" s="1">
-        <v>202</v>
-      </c>
-      <c r="F8" s="1">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1">
-        <v>40</v>
-      </c>
-      <c r="H8" s="1">
-        <v>25</v>
-      </c>
-      <c r="I8" s="1">
-        <v>35</v>
-      </c>
-      <c r="J8" s="1">
-        <v>200</v>
-      </c>
-      <c r="K8" s="1">
-        <v>100</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5060</v>
-      </c>
-      <c r="D9" s="1">
-        <v>83</v>
-      </c>
-      <c r="E9" s="1">
-        <v>222</v>
-      </c>
-      <c r="F9" s="1">
-        <v>20</v>
-      </c>
-      <c r="G9" s="1">
-        <v>40</v>
-      </c>
-      <c r="H9" s="1">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1">
-        <v>35</v>
-      </c>
-      <c r="J9" s="1">
-        <v>200</v>
-      </c>
-      <c r="K9" s="1">
-        <v>100</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5520</v>
-      </c>
-      <c r="D10" s="1">
-        <v>91</v>
-      </c>
-      <c r="E10" s="1">
-        <v>244</v>
-      </c>
-      <c r="F10" s="1">
-        <v>20</v>
-      </c>
-      <c r="G10" s="1">
-        <v>40</v>
-      </c>
-      <c r="H10" s="1">
-        <v>25</v>
-      </c>
-      <c r="I10" s="1">
-        <v>35</v>
-      </c>
-      <c r="J10" s="1">
-        <v>200</v>
-      </c>
-      <c r="K10" s="1">
-        <v>100</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5980</v>
-      </c>
-      <c r="D11" s="1">
-        <v>100</v>
-      </c>
-      <c r="E11" s="1">
-        <v>268</v>
-      </c>
-      <c r="F11" s="1">
-        <v>20</v>
-      </c>
-      <c r="G11" s="1">
-        <v>40</v>
-      </c>
-      <c r="H11" s="1">
-        <v>25</v>
-      </c>
-      <c r="I11" s="1">
-        <v>35</v>
-      </c>
-      <c r="J11" s="1">
-        <v>200</v>
-      </c>
-      <c r="K11" s="1">
-        <v>100</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>6440</v>
-      </c>
-      <c r="D12" s="1">
-        <v>110</v>
-      </c>
-      <c r="E12" s="1">
-        <v>295</v>
-      </c>
-      <c r="F12" s="1">
-        <v>20</v>
-      </c>
-      <c r="G12" s="1">
-        <v>40</v>
-      </c>
-      <c r="H12" s="1">
-        <v>25</v>
-      </c>
-      <c r="I12" s="1">
-        <v>35</v>
-      </c>
-      <c r="J12" s="1">
-        <v>200</v>
-      </c>
-      <c r="K12" s="1">
-        <v>100</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4000</v>
-      </c>
-      <c r="D13" s="1">
-        <v>60</v>
-      </c>
-      <c r="E13" s="1">
-        <v>195</v>
-      </c>
-      <c r="F13" s="1">
-        <v>20</v>
-      </c>
-      <c r="G13" s="1">
-        <v>30</v>
-      </c>
-      <c r="H13" s="1">
-        <v>30</v>
-      </c>
-      <c r="I13" s="1">
-        <v>55</v>
-      </c>
-      <c r="J13" s="1">
-        <v>200</v>
-      </c>
-      <c r="K13" s="1">
-        <v>100</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4400</v>
-      </c>
-      <c r="D14" s="1">
-        <v>66</v>
-      </c>
-      <c r="E14" s="1">
-        <v>215</v>
-      </c>
-      <c r="F14" s="1">
-        <v>20</v>
-      </c>
-      <c r="G14" s="1">
-        <v>30</v>
-      </c>
-      <c r="H14" s="1">
-        <v>30</v>
-      </c>
-      <c r="I14" s="1">
-        <v>55</v>
-      </c>
-      <c r="J14" s="1">
-        <v>200</v>
-      </c>
-      <c r="K14" s="1">
-        <v>100</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>3</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4800</v>
-      </c>
-      <c r="D15" s="1">
-        <v>73</v>
-      </c>
-      <c r="E15" s="1">
-        <v>237</v>
-      </c>
-      <c r="F15" s="1">
-        <v>20</v>
-      </c>
-      <c r="G15" s="1">
-        <v>30</v>
-      </c>
-      <c r="H15" s="1">
-        <v>30</v>
-      </c>
-      <c r="I15" s="1">
-        <v>55</v>
-      </c>
-      <c r="J15" s="1">
-        <v>200</v>
-      </c>
-      <c r="K15" s="1">
-        <v>100</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5200</v>
-      </c>
-      <c r="D16" s="1">
-        <v>80</v>
-      </c>
-      <c r="E16" s="1">
-        <v>261</v>
-      </c>
-      <c r="F16" s="1">
-        <v>20</v>
-      </c>
-      <c r="G16" s="1">
-        <v>30</v>
-      </c>
-      <c r="H16" s="1">
-        <v>30</v>
-      </c>
-      <c r="I16" s="1">
-        <v>55</v>
-      </c>
-      <c r="J16" s="1">
-        <v>200</v>
-      </c>
-      <c r="K16" s="1">
-        <v>100</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>3</v>
-      </c>
-      <c r="B17" s="3">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1">
-        <v>5600</v>
-      </c>
-      <c r="D17" s="1">
-        <v>88</v>
-      </c>
-      <c r="E17" s="1">
-        <v>287</v>
-      </c>
-      <c r="F17" s="1">
-        <v>20</v>
-      </c>
-      <c r="G17" s="1">
-        <v>30</v>
-      </c>
-      <c r="H17" s="1">
-        <v>30</v>
-      </c>
-      <c r="I17" s="1">
-        <v>55</v>
-      </c>
-      <c r="J17" s="1">
-        <v>200</v>
-      </c>
-      <c r="K17" s="1">
-        <v>100</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>6500</v>
-      </c>
-      <c r="D18" s="1">
-        <v>195</v>
-      </c>
-      <c r="E18" s="1">
-        <v>82</v>
-      </c>
-      <c r="F18" s="1">
-        <v>30</v>
-      </c>
-      <c r="G18" s="1">
-        <v>20</v>
-      </c>
-      <c r="H18" s="1">
-        <v>25</v>
-      </c>
-      <c r="I18" s="1">
-        <v>45</v>
-      </c>
-      <c r="J18" s="1">
-        <v>200</v>
-      </c>
-      <c r="K18" s="1">
-        <v>100</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>7150.0000000000009</v>
-      </c>
-      <c r="D19" s="1">
-        <v>215</v>
-      </c>
-      <c r="E19" s="1">
-        <v>90</v>
-      </c>
-      <c r="F19" s="1">
-        <v>30</v>
-      </c>
-      <c r="G19" s="1">
-        <v>20</v>
-      </c>
-      <c r="H19" s="1">
-        <v>25</v>
-      </c>
-      <c r="I19" s="1">
-        <v>45</v>
-      </c>
-      <c r="J19" s="1">
-        <v>200</v>
-      </c>
-      <c r="K19" s="1">
-        <v>100</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>4</v>
-      </c>
-      <c r="B20" s="3">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1">
-        <v>7800</v>
-      </c>
-      <c r="D20" s="1">
-        <v>237</v>
-      </c>
-      <c r="E20" s="1">
-        <v>99</v>
-      </c>
-      <c r="F20" s="1">
-        <v>30</v>
-      </c>
-      <c r="G20" s="1">
-        <v>20</v>
-      </c>
-      <c r="H20" s="1">
-        <v>25</v>
-      </c>
-      <c r="I20" s="1">
-        <v>45</v>
-      </c>
-      <c r="J20" s="1">
-        <v>200</v>
-      </c>
-      <c r="K20" s="1">
-        <v>100</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1">
-        <v>8450</v>
-      </c>
-      <c r="D21" s="1">
-        <v>261</v>
-      </c>
-      <c r="E21" s="1">
-        <v>109</v>
-      </c>
-      <c r="F21" s="1">
-        <v>30</v>
-      </c>
-      <c r="G21" s="1">
-        <v>20</v>
-      </c>
-      <c r="H21" s="1">
-        <v>25</v>
-      </c>
-      <c r="I21" s="1">
-        <v>45</v>
-      </c>
-      <c r="J21" s="1">
-        <v>200</v>
-      </c>
-      <c r="K21" s="1">
-        <v>100</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1">
-        <v>9100</v>
-      </c>
-      <c r="D22" s="1">
-        <v>287</v>
-      </c>
-      <c r="E22" s="1">
-        <v>120</v>
-      </c>
-      <c r="F22" s="1">
-        <v>30</v>
-      </c>
-      <c r="G22" s="1">
-        <v>20</v>
-      </c>
-      <c r="H22" s="1">
-        <v>25</v>
-      </c>
-      <c r="I22" s="1">
-        <v>45</v>
-      </c>
-      <c r="J22" s="1">
-        <v>200</v>
-      </c>
-      <c r="K22" s="1">
-        <v>100</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A1:L2">
-    <sortCondition sortBy="fontColor" ref="A1"/>
-  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
